--- a/MEDIA/3013_拉亞直營營業額(2020-03-01~2020-03-31).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-03-01~2020-03-31).xlsx
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35440</v>
+        <v>35280</v>
       </c>
       <c r="E3" t="n">
         <v>64</v>
@@ -523,22 +523,22 @@
         <v>11755</v>
       </c>
       <c r="G3" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>8270</v>
+        <v>8160</v>
       </c>
       <c r="J3" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>10245</v>
+        <v>10195</v>
       </c>
       <c r="M3" t="n">
         <v>28.9</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AA3" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23535</v>
+        <v>23350</v>
       </c>
       <c r="E5" t="n">
         <v>67</v>
@@ -701,16 +701,16 @@
         <v>8880</v>
       </c>
       <c r="G5" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
-        <v>6655</v>
+        <v>6470</v>
       </c>
       <c r="J5" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="K5" t="n">
         <v>18</v>
@@ -719,7 +719,7 @@
         <v>5205</v>
       </c>
       <c r="M5" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>2035</v>
       </c>
       <c r="S5" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>760</v>
       </c>
       <c r="V5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AA5" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26055</v>
+        <v>25525</v>
       </c>
       <c r="E8" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>9140</v>
+        <v>8690</v>
       </c>
       <c r="G8" t="n">
-        <v>35.1</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" t="n">
-        <v>7580</v>
+        <v>7500</v>
       </c>
       <c r="J8" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="K8" t="n">
         <v>12</v>
@@ -986,7 +986,7 @@
         <v>5585</v>
       </c>
       <c r="M8" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>1175</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>2575</v>
       </c>
       <c r="V8" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AA8" t="n">
         <v>155</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27625</v>
+        <v>27540</v>
       </c>
       <c r="E9" t="n">
         <v>72</v>
@@ -1057,16 +1057,16 @@
         <v>9895</v>
       </c>
       <c r="G9" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="H9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" t="n">
-        <v>6070</v>
+        <v>5985</v>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="K9" t="n">
         <v>19</v>
@@ -1075,7 +1075,7 @@
         <v>6550</v>
       </c>
       <c r="M9" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>1420</v>
       </c>
       <c r="V9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA9" t="n">
         <v>187</v>
@@ -1226,25 +1226,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26060</v>
+        <v>25630</v>
       </c>
       <c r="E11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>10515</v>
+        <v>10220</v>
       </c>
       <c r="G11" t="n">
-        <v>40.3</v>
+        <v>39.9</v>
       </c>
       <c r="H11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" t="n">
-        <v>6245</v>
+        <v>6110</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="K11" t="n">
         <v>16</v>
@@ -1253,7 +1253,7 @@
         <v>5720</v>
       </c>
       <c r="M11" t="n">
-        <v>21.9</v>
+        <v>22.3</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>690</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>2890</v>
       </c>
       <c r="V11" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA11" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
@@ -1315,25 +1315,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20650</v>
+        <v>20520</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" t="n">
-        <v>7850</v>
+        <v>7775</v>
       </c>
       <c r="G12" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="H12" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" t="n">
-        <v>6310</v>
+        <v>6255</v>
       </c>
       <c r="J12" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="K12" t="n">
         <v>17</v>
@@ -1342,7 +1342,7 @@
         <v>3250</v>
       </c>
       <c r="M12" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>1860</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26643</v>
+        <v>26473</v>
       </c>
       <c r="E13" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" t="n">
-        <v>8713</v>
+        <v>8543</v>
       </c>
       <c r="G13" t="n">
-        <v>32.7</v>
+        <v>32.3</v>
       </c>
       <c r="H13" t="n">
         <v>87</v>
@@ -1422,7 +1422,7 @@
         <v>7805</v>
       </c>
       <c r="J13" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="K13" t="n">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>5955</v>
       </c>
       <c r="M13" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>1265</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>2905</v>
       </c>
       <c r="V13" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25525</v>
+        <v>25400</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -1502,25 +1502,25 @@
         <v>9730</v>
       </c>
       <c r="G14" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="H14" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="n">
-        <v>8185</v>
+        <v>8110</v>
       </c>
       <c r="J14" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>3885</v>
+        <v>3835</v>
       </c>
       <c r="M14" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28615</v>
+        <v>25965</v>
       </c>
       <c r="E16" t="n">
         <v>68</v>
@@ -1680,16 +1680,16 @@
         <v>10695</v>
       </c>
       <c r="G16" t="n">
-        <v>37.4</v>
+        <v>41.2</v>
       </c>
       <c r="H16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" t="n">
-        <v>7280</v>
+        <v>7170</v>
       </c>
       <c r="J16" t="n">
-        <v>25.4</v>
+        <v>27.6</v>
       </c>
       <c r="K16" t="n">
         <v>14</v>
@@ -1698,7 +1698,7 @@
         <v>4845</v>
       </c>
       <c r="M16" t="n">
-        <v>16.9</v>
+        <v>18.7</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1716,16 +1716,16 @@
         <v>3255</v>
       </c>
       <c r="S16" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2540</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="n">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
@@ -1760,25 +1760,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36315</v>
+        <v>35105</v>
       </c>
       <c r="E17" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>12521</v>
+        <v>12136</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="H17" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" t="n">
-        <v>11015</v>
+        <v>10190</v>
       </c>
       <c r="J17" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
@@ -1787,7 +1787,7 @@
         <v>4799</v>
       </c>
       <c r="M17" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>3670</v>
       </c>
       <c r="S17" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>4310</v>
       </c>
       <c r="V17" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AA17" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18">
@@ -1849,31 +1849,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26315</v>
+        <v>25735</v>
       </c>
       <c r="E18" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" t="n">
-        <v>9410</v>
+        <v>8990</v>
       </c>
       <c r="G18" t="n">
-        <v>35.8</v>
+        <v>34.9</v>
       </c>
       <c r="H18" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" t="n">
-        <v>8465</v>
+        <v>8400</v>
       </c>
       <c r="J18" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="K18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>4340</v>
+        <v>4245</v>
       </c>
       <c r="M18" t="n">
         <v>16.5</v>
@@ -1894,7 +1894,7 @@
         <v>940</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>3160</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AA18" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -1938,16 +1938,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23018</v>
+        <v>22923</v>
       </c>
       <c r="E19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>9065</v>
+        <v>8970</v>
       </c>
       <c r="G19" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="H19" t="n">
         <v>81</v>
@@ -1956,7 +1956,7 @@
         <v>6750</v>
       </c>
       <c r="J19" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="K19" t="n">
         <v>13</v>
@@ -1965,7 +1965,7 @@
         <v>2698</v>
       </c>
       <c r="M19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>3555</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA19" t="n">
         <v>147</v>
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25575</v>
+        <v>25485</v>
       </c>
       <c r="E20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" t="n">
-        <v>8930</v>
+        <v>8840</v>
       </c>
       <c r="G20" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="H20" t="n">
         <v>66</v>
@@ -2045,7 +2045,7 @@
         <v>6165</v>
       </c>
       <c r="J20" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="K20" t="n">
         <v>9</v>
@@ -2054,7 +2054,7 @@
         <v>5630</v>
       </c>
       <c r="M20" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA20" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -2116,25 +2116,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26800</v>
+        <v>26385</v>
       </c>
       <c r="E21" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" t="n">
-        <v>9070</v>
+        <v>8730</v>
       </c>
       <c r="G21" t="n">
-        <v>33.8</v>
+        <v>33.1</v>
       </c>
       <c r="H21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" t="n">
-        <v>7980</v>
+        <v>7905</v>
       </c>
       <c r="J21" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
         <v>15</v>
@@ -2143,7 +2143,7 @@
         <v>5270</v>
       </c>
       <c r="M21" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>1555</v>
       </c>
       <c r="S21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>2925</v>
       </c>
       <c r="V21" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AA21" t="n">
         <v>170</v>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31625</v>
+        <v>31400</v>
       </c>
       <c r="E24" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" t="n">
-        <v>12520</v>
+        <v>12295</v>
       </c>
       <c r="G24" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="H24" t="n">
         <v>76</v>
@@ -2401,7 +2401,7 @@
         <v>9330</v>
       </c>
       <c r="J24" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="K24" t="n">
         <v>9</v>
@@ -2410,7 +2410,7 @@
         <v>2410</v>
       </c>
       <c r="M24" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>5130</v>
       </c>
       <c r="V24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA24" t="n">
         <v>193</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25555</v>
+        <v>25380</v>
       </c>
       <c r="E25" t="n">
         <v>52</v>
@@ -2481,16 +2481,16 @@
         <v>8100</v>
       </c>
       <c r="G25" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="H25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>7690</v>
+        <v>7515</v>
       </c>
       <c r="J25" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="K25" t="n">
         <v>12</v>
@@ -2499,7 +2499,7 @@
         <v>6100</v>
       </c>
       <c r="M25" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>2745</v>
       </c>
       <c r="V25" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA25" t="n">
         <v>184</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22830</v>
+        <v>22360</v>
       </c>
       <c r="E26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>6630</v>
+        <v>6160</v>
       </c>
       <c r="G26" t="n">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="H26" t="n">
         <v>95</v>
@@ -2579,7 +2579,7 @@
         <v>8677</v>
       </c>
       <c r="J26" t="n">
-        <v>38</v>
+        <v>38.8</v>
       </c>
       <c r="K26" t="n">
         <v>24</v>
@@ -2588,7 +2588,7 @@
         <v>3628</v>
       </c>
       <c r="M26" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>750</v>
       </c>
       <c r="P26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>740</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>2405</v>
       </c>
       <c r="V26" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA26" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29201</v>
+        <v>29036</v>
       </c>
       <c r="E27" t="n">
         <v>63</v>
@@ -2659,16 +2659,16 @@
         <v>9675</v>
       </c>
       <c r="G27" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="H27" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I27" t="n">
-        <v>10240</v>
+        <v>10075</v>
       </c>
       <c r="J27" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="K27" t="n">
         <v>18</v>
@@ -2677,7 +2677,7 @@
         <v>5581</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>3015</v>
       </c>
       <c r="V27" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AA27" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30485</v>
+        <v>30430</v>
       </c>
       <c r="E28" t="n">
         <v>69</v>
@@ -2748,16 +2748,16 @@
         <v>10895</v>
       </c>
       <c r="G28" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="H28" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I28" t="n">
-        <v>7570</v>
+        <v>7515</v>
       </c>
       <c r="J28" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="K28" t="n">
         <v>15</v>
@@ -2766,7 +2766,7 @@
         <v>6685</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2805,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA28" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25465</v>
+        <v>25405</v>
       </c>
       <c r="E32" t="n">
         <v>66</v>
@@ -3104,16 +3104,16 @@
         <v>10210</v>
       </c>
       <c r="G32" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="H32" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" t="n">
-        <v>7430</v>
+        <v>7370</v>
       </c>
       <c r="J32" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="K32" t="n">
         <v>18</v>
@@ -3122,7 +3122,7 @@
         <v>5405</v>
       </c>
       <c r="M32" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA32" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>25830</v>
+        <v>25750</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>9375</v>
+        <v>9295</v>
       </c>
       <c r="G33" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="H33" t="n">
         <v>85</v>
@@ -3202,7 +3202,7 @@
         <v>9980</v>
       </c>
       <c r="J33" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="K33" t="n">
         <v>12</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA33" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34">
@@ -3265,34 +3265,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>849642</v>
+        <v>841557</v>
       </c>
       <c r="E34" t="n">
-        <v>1965</v>
+        <v>1949</v>
       </c>
       <c r="F34" t="n">
-        <v>296399</v>
+        <v>293304</v>
       </c>
       <c r="G34" t="n">
         <v>34.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2259</v>
+        <v>2240</v>
       </c>
       <c r="I34" t="n">
-        <v>239027</v>
+        <v>236772</v>
       </c>
       <c r="J34" t="n">
         <v>28.1</v>
       </c>
       <c r="K34" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L34" t="n">
-        <v>166731</v>
+        <v>166536</v>
       </c>
       <c r="M34" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -3310,16 +3310,16 @@
         <v>58655</v>
       </c>
       <c r="S34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="T34" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" t="n">
-        <v>88080</v>
+        <v>85540</v>
       </c>
       <c r="V34" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>4731</v>
+        <v>4692</v>
       </c>
       <c r="AA34" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
